--- a/example-output/xslx/ID_cafr2010-statement_of_activities.xlsx
+++ b/example-output/xslx/ID_cafr2010-statement_of_activities.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="700" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ID_cafr2010-statement_of_activi" sheetId="1" r:id="rId1"/>
@@ -228,21 +228,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -385,13 +379,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,10 +439,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,6 +463,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,13 +481,10 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="lightTrellis">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -776,23 +815,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="83.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -800,25 +838,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -831,21 +869,21 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>41635</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>958</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>160394</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>273433</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11">
         <v>153716</v>
       </c>
     </row>
@@ -853,37 +891,37 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>8662</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>8650</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>32735</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
         <v>1827</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>47986</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
         <v>78894</v>
       </c>
     </row>
@@ -891,43 +929,43 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>-4679</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>4764</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>10863</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
         <v>1420</v>
       </c>
     </row>
@@ -935,21 +973,21 @@
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>12431</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>958</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>141935</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>203864</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
         <v>73402</v>
       </c>
     </row>
@@ -957,349 +995,349 @@
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>1136</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
         <v>3206</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <v>2070</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" thickTop="1">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>6649</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>206246</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <v>2612991</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>16800</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>5017</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>221142</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <v>1242032</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
         <v>186130</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <v>1127013</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <v>26120</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>1632</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14">
         <v>206246</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
         <v>-206246</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" thickTop="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>493287</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>1402213</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
         <v>7118511</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>48284</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>6693</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
         <v>197145</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>541571</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="14">
         <v>1408906</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <v>7315656</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" thickTop="1">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10">
         <v>-199553</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>48754</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>1540945</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="10">
         <v>7442255</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="10">
         <v>-2415846</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="11">
         <v>3237157</v>
       </c>
     </row>
@@ -1307,21 +1345,21 @@
       <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12">
         <v>-199553</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <v>44094</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <v>928120</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="12">
         <v>1473531</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12">
+      <c r="G34" s="12"/>
+      <c r="H34" s="13">
         <v>301764</v>
       </c>
     </row>
@@ -1329,37 +1367,37 @@
       <c r="A35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12">
         <v>-462</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
         <v>6091</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="12">
         <v>6553</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12">
         <v>35595</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
         <v>15027</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <v>9624</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12">
+      <c r="G36" s="12"/>
+      <c r="H36" s="13">
         <v>30192</v>
       </c>
     </row>
@@ -1367,55 +1405,55 @@
       <c r="A37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12">
         <v>37727</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12">
         <v>147931</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <v>110204</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12">
         <v>17267</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12">
         <v>135289</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <v>118022</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12">
         <v>-75342</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
         <v>255278</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <v>331116</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12">
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
         <v>496</v>
       </c>
     </row>
@@ -1423,45 +1461,45 @@
       <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12">
         <v>-214338</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <v>44094</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="12">
         <v>368504</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="12">
         <v>898012</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12">
+      <c r="G42" s="12"/>
+      <c r="H42" s="13">
         <v>271076</v>
       </c>
     </row>
@@ -1469,33 +1507,33 @@
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="22" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12">
         <v>4660</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="12">
         <v>612825</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="12">
         <v>5968724</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="12">
         <v>-2415846</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="13">
         <v>2935393</v>
       </c>
     </row>
@@ -1503,21 +1541,21 @@
       <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12">
         <v>2223</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="12">
         <v>239107</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="12">
         <v>799054</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="12">
         <v>-83564</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="13">
         <v>474160</v>
       </c>
     </row>
@@ -1525,19 +1563,19 @@
       <c r="A46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12">
         <v>12624</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="12">
         <v>1830608</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="12">
         <v>-1353649</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="13">
         <v>464335</v>
       </c>
     </row>
@@ -1545,33 +1583,33 @@
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12">
         <v>209</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="12">
         <v>79833</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="12">
         <v>548757</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="12">
         <v>-401781</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="13">
         <v>66934</v>
       </c>
     </row>
@@ -1579,37 +1617,37 @@
       <c r="A49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12">
         <v>45782</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="12">
         <v>-45782</v>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12">
         <v>2228</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="12">
         <v>127037</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="12">
         <v>241508</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="12">
         <v>142115</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="13">
         <v>254358</v>
       </c>
     </row>
@@ -1617,19 +1655,19 @@
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12">
         <v>101419</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="12">
         <v>2182592</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="12">
         <v>-420369</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="13">
         <v>1660804</v>
       </c>
     </row>
@@ -1637,19 +1675,19 @@
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12">
         <v>52805</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="12">
         <v>320423</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="12">
         <v>-252816</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="13">
         <v>14802</v>
       </c>
     </row>
@@ -1657,30 +1695,30 @@
       <c r="A53" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" thickBot="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" thickTop="1"/>
   </sheetData>
   <conditionalFormatting sqref="B2:H54">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
